--- a/metadata/definition/meta_hub_mapping.xlsx
+++ b/metadata/definition/meta_hub_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\golddwh\metadata\definition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ssh_dwh\metadata\definition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA6762-AE37-4A4E-9908-ECF2814F03FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088D00CF-B0EC-459A-B6E4-372789E85D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="27240" windowHeight="15225" xr2:uid="{30A9ECFF-E8C8-45CF-B77F-A4105C447593}"/>
+    <workbookView xWindow="5610" yWindow="2040" windowWidth="31245" windowHeight="17790" xr2:uid="{30A9ECFF-E8C8-45CF-B77F-A4105C447593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>schema_name</t>
   </si>
@@ -84,49 +84,73 @@
     <t>rdv</t>
   </si>
   <si>
-    <t>hub_account</t>
-  </si>
-  <si>
-    <t>account_id</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>hub_user</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>hub_card</t>
-  </si>
-  <si>
-    <t>card_id</t>
-  </si>
-  <si>
-    <t>hub_address</t>
-  </si>
-  <si>
-    <t>address_id</t>
-  </si>
-  <si>
-    <t>dat_g_account</t>
-  </si>
-  <si>
-    <t>dat_g_users</t>
-  </si>
-  <si>
-    <t>dat_g_card</t>
-  </si>
-  <si>
-    <t>dat_g_address</t>
+    <t>hub_kunde</t>
+  </si>
+  <si>
+    <t>kunde_id</t>
+  </si>
+  <si>
+    <t>hub_abrechnung</t>
+  </si>
+  <si>
+    <t>hub_zaehler</t>
+  </si>
+  <si>
+    <t>abrechnung_id</t>
+  </si>
+  <si>
+    <t>zaehler_id</t>
+  </si>
+  <si>
+    <t>adf</t>
+  </si>
+  <si>
+    <t>dat_kunde</t>
+  </si>
+  <si>
+    <t>k_id</t>
+  </si>
+  <si>
+    <t>dat_abrechnung</t>
+  </si>
+  <si>
+    <t>dat_zaehler_historie</t>
+  </si>
+  <si>
+    <t>dat_nach_k</t>
+  </si>
+  <si>
+    <t>hub_nachricht</t>
+  </si>
+  <si>
+    <t>nachricht_id</t>
+  </si>
+  <si>
+    <t>nach_id PK not clear</t>
+  </si>
+  <si>
+    <t>abr_id PK not clear</t>
+  </si>
+  <si>
+    <t>z_hist_id PK not clear</t>
+  </si>
+  <si>
+    <t>hash_diff</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>hub_kunden_hist</t>
+  </si>
+  <si>
+    <t>abnehmer_id</t>
+  </si>
+  <si>
+    <t>dat_kunden_hist</t>
   </si>
 </sst>
 </file>
@@ -163,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,28 +537,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B8CF78-BB87-4FB2-B86D-C8D63AB80A99}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -588,25 +614,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -620,101 +646,155 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>